--- a/Goblerdata.xlsx
+++ b/Goblerdata.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OceanAcidification\Shellfish Project\PopManuscript\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="6660" yWindow="660" windowWidth="21615" windowHeight="15135" activeTab="1"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="clam" sheetId="2" r:id="rId1"/>
     <sheet name="scallop" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
   <si>
     <t>co2</t>
   </si>
@@ -82,15 +77,6 @@
     <t>reps.per.trt</t>
   </si>
   <si>
-    <t>jsg adjusted survival, since text only reports metamorph (see fig 1)</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>checked</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -100,28 +86,13 @@
     <t>standard deviation?</t>
   </si>
   <si>
-    <t>temperature =24C</t>
-  </si>
-  <si>
     <t>reported survival was 37 plus/minus 3.3%</t>
   </si>
   <si>
     <t>these suvival rates for time period 24-36 day and adjusted from reported.  Technically repeated measures. These may also be juveniles.</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t xml:space="preserve">reported survival was 23 plus/minus 1.8%, CO2 level for high treatment is missing from Table 5 so just use 1500 </t>
-  </si>
-  <si>
-    <t>used the survival rates and final size reported in paper even though they were different from metadata from CG, exact CO2 levels for control not given in Table 1</t>
-  </si>
-  <si>
-    <t>used the survival rates and final size reported in paper even though they were different from metadata from CG, exact CO2 levels for control not given in Table 2</t>
-  </si>
-  <si>
-    <t>used the survival rates and final size reported in paper even though they were different from metadata from CG, exact CO2 levels for control not given in Table 3</t>
   </si>
   <si>
     <t>stage</t>
@@ -247,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,7 +475,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -522,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
@@ -540,15 +511,15 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -567,7 +538,7 @@
         <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -587,7 +558,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -606,7 +577,7 @@
         <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -626,7 +597,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -645,7 +616,7 @@
         <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -665,7 +636,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -681,7 +652,7 @@
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -701,7 +672,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>49</v>
@@ -717,7 +688,7 @@
         <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -737,7 +708,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -753,7 +724,7 @@
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -773,7 +744,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>73</v>
@@ -789,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -809,7 +780,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -827,7 +798,7 @@
         <v>520</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -847,7 +818,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -865,7 +836,7 @@
         <v>280</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -885,7 +856,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -903,7 +874,7 @@
         <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -923,7 +894,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -941,7 +912,7 @@
         <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -961,7 +932,7 @@
     </row>
     <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -979,7 +950,7 @@
         <v>550</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
@@ -994,12 +965,12 @@
         <v>17</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1017,7 +988,7 @@
         <v>450</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
@@ -1032,12 +1003,12 @@
         <v>17</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1055,7 +1026,7 @@
         <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2">
         <v>4</v>
@@ -1070,12 +1041,12 @@
         <v>17</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1090,7 +1061,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2">
         <v>4</v>
@@ -1105,15 +1076,15 @@
         <v>17</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1128,7 +1099,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
@@ -1143,10 +1114,10 @@
         <v>17</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N17" s="2">
         <v>1.8</v>
@@ -1154,7 +1125,7 @@
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1169,7 +1140,7 @@
         <v>25.2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -1184,15 +1155,15 @@
         <v>17</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1207,7 +1178,7 @@
         <v>9.24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2">
         <v>4</v>
@@ -1222,10 +1193,10 @@
         <v>17</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1241,20 +1212,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K1" sqref="K1:AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1272,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
@@ -1283,16 +1256,10 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -1311,7 +1278,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1322,16 +1289,10 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>69</v>
@@ -1350,7 +1311,7 @@
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1361,19 +1322,10 @@
       <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>163</v>
@@ -1392,7 +1344,7 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1403,19 +1355,10 @@
       <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1433,7 +1376,7 @@
         <v>530</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1444,16 +1387,10 @@
       <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1471,7 +1408,7 @@
         <v>450</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1482,16 +1419,10 @@
       <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1509,7 +1440,7 @@
         <v>375</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1520,16 +1451,10 @@
       <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1547,7 +1472,7 @@
         <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1558,16 +1483,10 @@
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1585,7 +1504,7 @@
         <v>525</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1596,16 +1515,10 @@
       <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1623,7 +1536,7 @@
         <v>475</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1634,16 +1547,10 @@
       <c r="J10" t="s">
         <v>7</v>
       </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1661,7 +1568,7 @@
         <v>350</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1672,16 +1579,10 @@
       <c r="J11" t="s">
         <v>7</v>
       </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1699,7 +1600,7 @@
         <v>492.9</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2">
         <v>4</v>
@@ -1710,19 +1611,10 @@
       <c r="J12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1740,7 +1632,7 @@
         <v>389.3</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
@@ -1751,19 +1643,10 @@
       <c r="J13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1781,7 +1664,7 @@
         <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
@@ -1792,19 +1675,10 @@
       <c r="J14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1819,7 +1693,7 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1828,21 +1702,12 @@
         <v>400</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1857,7 +1722,7 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1866,13 +1731,7 @@
         <v>400</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Goblerdata.xlsx
+++ b/Goblerdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="23">
   <si>
     <t>co2</t>
   </si>
@@ -56,43 +56,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Who</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Checked</t>
-  </si>
-  <si>
-    <t>Janet</t>
-  </si>
-  <si>
     <t>N.per.Rep</t>
   </si>
   <si>
     <t>reps.per.trt</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>reported survival</t>
-  </si>
-  <si>
-    <t>standard deviation?</t>
-  </si>
-  <si>
-    <t>reported survival was 37 plus/minus 3.3%</t>
-  </si>
-  <si>
-    <t>these suvival rates for time period 24-36 day and adjusted from reported.  Technically repeated measures. These may also be juveniles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reported survival was 23 plus/minus 1.8%, CO2 level for high treatment is missing from Table 5 so just use 1500 </t>
   </si>
   <si>
     <t>stage</t>
@@ -462,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,9 +440,9 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -493,33 +460,21 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -538,7 +493,7 @@
         <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -549,16 +504,10 @@
       <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -577,7 +526,7 @@
         <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -588,16 +537,10 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -616,7 +559,7 @@
         <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -627,16 +570,10 @@
       <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -652,7 +589,7 @@
         <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -663,16 +600,10 @@
       <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>49</v>
@@ -688,7 +619,7 @@
         <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -699,16 +630,10 @@
       <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -724,7 +649,7 @@
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -735,16 +660,10 @@
       <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>73</v>
@@ -760,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -771,16 +690,10 @@
       <c r="J8" t="s">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -798,7 +711,7 @@
         <v>520</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -809,16 +722,10 @@
       <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -836,7 +743,7 @@
         <v>280</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -847,16 +754,10 @@
       <c r="J10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -874,7 +775,7 @@
         <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -885,16 +786,10 @@
       <c r="J11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -912,7 +807,7 @@
         <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -923,16 +818,10 @@
       <c r="J12" t="s">
         <v>6</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -950,7 +839,7 @@
         <v>550</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
@@ -961,16 +850,10 @@
       <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -988,7 +871,7 @@
         <v>450</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
@@ -999,16 +882,10 @@
       <c r="J14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -1026,7 +903,7 @@
         <v>350</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2">
         <v>4</v>
@@ -1037,16 +914,10 @@
       <c r="J15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1061,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2">
         <v>4</v>
@@ -1072,19 +943,10 @@
       <c r="J16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1099,7 +961,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
@@ -1110,22 +972,10 @@
       <c r="J17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1140,7 +990,7 @@
         <v>25.2</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -1151,19 +1001,10 @@
       <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1178,7 +1019,7 @@
         <v>9.24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2">
         <v>4</v>
@@ -1188,15 +1029,6 @@
       </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1215,7 +1047,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:AC17"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1059,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1245,13 +1077,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1259,7 +1091,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -1278,7 +1110,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1292,7 +1124,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>69</v>
@@ -1311,7 +1143,7 @@
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -1325,7 +1157,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>163</v>
@@ -1344,7 +1176,7 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1358,7 +1190,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1376,7 +1208,7 @@
         <v>530</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1390,7 +1222,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1408,7 +1240,7 @@
         <v>450</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1422,7 +1254,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1440,7 +1272,7 @@
         <v>375</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1454,7 +1286,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1472,7 +1304,7 @@
         <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1486,7 +1318,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1504,7 +1336,7 @@
         <v>525</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1518,7 +1350,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1536,7 +1368,7 @@
         <v>475</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1550,7 +1382,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1568,7 +1400,7 @@
         <v>350</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1582,7 +1414,7 @@
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1600,7 +1432,7 @@
         <v>492.9</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2">
         <v>4</v>
@@ -1614,7 +1446,7 @@
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1632,7 +1464,7 @@
         <v>389.3</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
@@ -1646,7 +1478,7 @@
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1664,7 +1496,7 @@
         <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
@@ -1678,7 +1510,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1693,7 +1525,7 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1702,12 +1534,12 @@
         <v>400</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1722,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1731,7 +1563,7 @@
         <v>400</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Goblerdata.xlsx
+++ b/Goblerdata.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Goblerdata.xlsx
+++ b/Goblerdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="660" windowWidth="21615" windowHeight="15135" activeTab="1"/>
+    <workbookView xWindow="6660" yWindow="660" windowWidth="21615" windowHeight="15135"/>
   </bookViews>
   <sheets>
     <sheet name="clam" sheetId="2" r:id="rId1"/>
@@ -431,14 +431,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1046,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
